--- a/강의정리/시험/5번 시험(데이터입출력구현)/제정규화 예제.xlsx
+++ b/강의정리/시험/5번 시험(데이터입출력구현)/제정규화 예제.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="166">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -584,6 +584,90 @@
   </si>
   <si>
     <t>n : 1 관계라고 해야 정답 부서번호에 기본키를 설정했으므로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호(MNO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름(mname)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일(email)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호(bNo)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목(title)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓴이(writer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용(content)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일(BCreDate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일(MCreDate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호(password)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2372,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I53"/>
+  <dimension ref="B1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2898,7 +2982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G49" s="13">
         <v>3011</v>
       </c>
@@ -2909,7 +2993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G50" s="13">
         <v>3011</v>
       </c>
@@ -2920,9 +3004,89 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E53" s="13" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C60" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B63" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
